--- a/projects/va_emerging_tech/jbennett_dissertation/data/emissionLimit_decarb_2035.xlsx
+++ b/projects/va_emerging_tech/jbennett_dissertation/data/emissionLimit_decarb_2035.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7449435-A27C-4591-B892-E85F88A0407C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8071A54-12D3-46D6-83BC-CA10664258D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Emission" sheetId="20" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>23800</v>
+        <v>25020</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -470,7 +470,7 @@
       </c>
       <c r="C5" s="2">
         <f>C4/2</f>
-        <v>11900</v>
+        <v>12510</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
